--- a/Flux_Capacitor.xlsx
+++ b/Flux_Capacitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christoph/Projects/KiCad Projects/Flux_Capacitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D007D-1C3A-8245-B6DB-858AE8FEFF9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD9D60-D21C-C84E-9D46-FCB5D3834E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16700" yWindow="460" windowWidth="12100" windowHeight="17540" xr2:uid="{0B11672F-7E1E-0949-986B-824D87FC2BC1}"/>
+    <workbookView xWindow="14640" yWindow="460" windowWidth="13040" windowHeight="16660" xr2:uid="{0B11672F-7E1E-0949-986B-824D87FC2BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ATTINY13A-SU</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Part Number</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>CAP CER 0.1UF 50V X7R 0805</t>
   </si>
   <si>
@@ -82,6 +79,36 @@
   </si>
   <si>
     <t>EXB-38V151JV</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>RN1, RN2, RN3</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9, D10, D11, D12</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Designator</t>
   </si>
 </sst>
 </file>
@@ -125,11 +152,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -444,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEE7F56-96B7-814A-A4C1-C0C8A884F83A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -452,108 +495,136 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D9" s="7">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
